--- a/doc/機能一覧.xlsx
+++ b/doc/機能一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sawatch\github\GlucoseDashboard\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D5C60F-1BE5-4A4C-B1B3-21D39C172D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ACE869-3258-4BEE-A355-A099504CEAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{11A5C2B7-58AE-4B20-ABA9-0D443A0D82AF}"/>
   </bookViews>
@@ -1016,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA721588-41F7-4BCC-B29E-3B0A8847DE00}">
-  <dimension ref="B2:F70"/>
+  <dimension ref="B2:F66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1185,26 +1185,46 @@
       <c r="E17" s="4"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="2"/>
@@ -1213,45 +1233,33 @@
       <c r="E21" s="4"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="2"/>
-      <c r="C22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="2">
-        <v>3</v>
-      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="2">
-        <v>4</v>
-      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D24" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -1275,16 +1283,16 @@
       <c r="E27" s="4"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="2"/>
       <c r="C28" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="2">
         <v>3</v>
@@ -1297,12 +1305,20 @@
       <c r="E29" s="4"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="2"/>
+      <c r="C30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="2"/>
@@ -1311,42 +1327,34 @@
       <c r="E31" s="4"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="2"/>
-      <c r="C32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="2">
-        <v>3</v>
-      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="2"/>
-      <c r="C34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="2">
-        <v>3</v>
-      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="2"/>
@@ -1364,18 +1372,10 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="2"/>
-      <c r="C37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="2">
-        <v>3</v>
-      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="2"/>
@@ -1435,17 +1435,31 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="2"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="2"/>
+      <c r="C46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="2"/>
-      <c r="C47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="2"/>
+      <c r="E47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="2"/>
@@ -1462,104 +1476,62 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="2"/>
-      <c r="C50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="2">
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="2"/>
-      <c r="C51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="2"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="2"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E54" t="s">
-        <v>30</v>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="F64" s="6">
         <v>3</v>
       </c>
-      <c r="E65" s="3" t="s">
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F65" s="6">
         <v>4</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F66" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F67" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F68" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F69" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F70" s="6">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F53" xr:uid="{063BA882-1D22-49FF-B7F8-4A28537B17C9}">
-      <formula1>$F$66:$F$70</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F49" xr:uid="{063BA882-1D22-49FF-B7F8-4A28537B17C9}">
+      <formula1>$F$62:$F$66</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/機能一覧.xlsx
+++ b/doc/機能一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sawatch\github\GlucoseDashboard\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ACE869-3258-4BEE-A355-A099504CEAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E332DBC-0AF8-4860-93C5-03D3DE04BB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{11A5C2B7-58AE-4B20-ABA9-0D443A0D82AF}"/>
+    <workbookView xWindow="3040" yWindow="1830" windowWidth="18850" windowHeight="19770" activeTab="1" xr2:uid="{11A5C2B7-58AE-4B20-ABA9-0D443A0D82AF}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -563,6 +563,10 @@
     <rPh sb="76" eb="78">
       <t>ショウニン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>持続グルコースモニタリング</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1018,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA721588-41F7-4BCC-B29E-3B0A8847DE00}">
   <dimension ref="B2:F66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1540,20 +1544,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCFC68C-AE60-4761-9F88-61ECCD6C15B0}">
-  <dimension ref="C5:C6"/>
+  <dimension ref="C5:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
         <v>32</v>
       </c>

--- a/doc/機能一覧.xlsx
+++ b/doc/機能一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sawatch\github\GlucoseDashboard\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E332DBC-0AF8-4860-93C5-03D3DE04BB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768893D0-B3D3-499F-9482-63A6378D7DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="1830" windowWidth="18850" windowHeight="19770" activeTab="1" xr2:uid="{11A5C2B7-58AE-4B20-ABA9-0D443A0D82AF}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{11A5C2B7-58AE-4B20-ABA9-0D443A0D82AF}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -99,13 +99,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一覧</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>グラフ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -117,16 +110,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>時間帯設定</t>
-    <rPh sb="0" eb="3">
-      <t>ジカンタイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PDF出力</t>
     <rPh sb="3" eb="5">
       <t>シュツリョク</t>
@@ -141,13 +124,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メールアドレスとパスワードを入力する</t>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>年月の切替</t>
     <rPh sb="0" eb="2">
       <t>ネンゲツ</t>
@@ -243,76 +219,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>朝・昼・夕の時間帯を設定する</t>
-    <rPh sb="0" eb="1">
-      <t>アサ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒル</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ユウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ジカンタイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>現在のパスワード、新しいパスワード、新しいパスワード(確認)を入力する</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>薬設定</t>
-    <rPh sb="0" eb="1">
-      <t>クスリ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>薬名と投薬の最低単位を入力する</t>
-    <rPh sb="0" eb="1">
-      <t>クスリ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウヤク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サイテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1ヶ月分のデータ表をPDFで出力する</t>
     <rPh sb="2" eb="4">
       <t>ゲツブン</t>
@@ -379,90 +285,590 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面を表示時に現在の日時を表示する
-・日時を選択できる
+    <t>パスワード忘れ</t>
+    <rPh sb="5" eb="6">
+      <t>ワス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードのリセット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント新規作成</t>
+    <rPh sb="5" eb="7">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>持続グルコースモニタリング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>血糖自己測定</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレス/パスワードでアカウントを取得できる</t>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ログインしているユーザーの1ヶ月分の血糖値のデータを表示する
+</t>
+    <rPh sb="15" eb="17">
+      <t>ゲツブン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ケットウチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレス/パスワードでログインする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント情報を入力する
+・ニックネーム
+・メールアドレス
+・パスワード
+・パスワード(確認)
+入力されたメールアドレスにメールを送る
+ユーザーがリンクのURLをアクセスすると、アカウントが承認されてログインできる。</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしているユーザーの1ヶ月分の血糖値のデータを表示する
+・年月を表示
+・朝・昼・夜を表示
+・CGM,SMBGのHigh,Lowも表現する
+病院の診察券番号を表示する</t>
+    <rPh sb="15" eb="17">
+      <t>ゲツブン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ケットウチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カレンダーを選択して、年月を切替える
+・切替える単位は年月</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キリカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キリカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>血糖値(詳細)</t>
+    <rPh sb="0" eb="3">
+      <t>ケットウチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>血糖値(一覧)</t>
+    <rPh sb="0" eb="3">
+      <t>ケットウチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>血糖値測定に関する情報を入力する
+・日時を選択できる（画面を表示時に現在の日時を表示する）
 ・CGMを入力
 ・SMBGを入力
 ・薬名を選択、投薬単位を入力（デフォルト２つ、設定されている薬の数だけ表示）</t>
+    <rPh sb="0" eb="3">
+      <t>ケットウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>トウヤク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスとパスワードを入力する。</t>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目設定</t>
     <rPh sb="0" eb="2">
-      <t>ガメン</t>
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設定</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>血糖値一覧の項目名を設定する</t>
+    <rPh sb="0" eb="3">
+      <t>ケットウチ</t>
     </rPh>
     <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名を設定する
+・メイン項目1,2,3
+・サブ項目1-1,1-2,2-1,2-2,3-1,3-2
+・備考</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>薬設定(一覧)</t>
+    <rPh sb="0" eb="1">
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>薬の入力</t>
+    <rPh sb="0" eb="1">
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>薬設定(詳細)</t>
+    <rPh sb="0" eb="1">
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>薬の情報を表示する</t>
+    <rPh sb="0" eb="1">
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="46" eb="47">
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>順番</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>薬の表示順を変更する</t>
+    <rPh sb="0" eb="1">
       <t>クスリ</t>
     </rPh>
-    <rPh sb="47" eb="48">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>トウヤク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
+    <rPh sb="2" eb="5">
+      <t>ヒョウジジュン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>順番を変更する</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>薬に関する情報を入力する</t>
+    <rPh sb="0" eb="1">
       <t>クスリ</t>
     </rPh>
-    <rPh sb="77" eb="78">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>パスワード忘れ</t>
-    <rPh sb="5" eb="6">
-      <t>ワス</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>パスワードのリセット</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メールアドレスを入力する
-入力されたメールアドレス宛てに新しい仮のパスワードを送信する</t>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
     <rPh sb="8" eb="10">
       <t>ニュウリョク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1回の血糖値測定情報を入力する</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ケットウチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワード再設定</t>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードを再設定する</t>
+    <rPh sb="6" eb="9">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新しいパスワードに関する情報を入力する
+・現在のパスワード
+・新しいパスワード
+・新しいパスワード(確認)</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>薬の情報を表示する
+・薬名
+・単位
+・名称
+順番を表示する</t>
+    <rPh sb="0" eb="1">
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>薬の情報を入力する
+・薬名
+・投薬の最低単位
+・略称
+最大5個まで設定する</t>
+    <rPh sb="0" eb="1">
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウヤク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>リャクショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力されたメールアドレス宛てに新しい仮のパスワードを送信する</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アテ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスを入力する
+入力されたメールアドレス宛てに新しい仮のパスワードを送信する
+払い出したパスワードの有効期限は30分</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
     <rPh sb="13" eb="15">
       <t>ニュウリョク</t>
     </rPh>
@@ -478,95 +884,18 @@
     <rPh sb="39" eb="41">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしているユーザーの1ヶ月分の血糖値のデータを表示する
-・年月を表示
-・朝・昼・夜を表示
-・CGM,SMBGのHigh,Lowも表現する</t>
-    <rPh sb="15" eb="17">
-      <t>ゲツブン</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ケットウチ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>アサ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ヒル</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ヨル</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>病院の診察券番号を表示</t>
-    <rPh sb="0" eb="2">
-      <t>ビョウイン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>シンサツケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント新規作成</t>
-    <rPh sb="5" eb="7">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メールアドレスとパスワード、パスワード(確認)を入力する
-入力されたメールアドレスにメールを送る
-ユーザーがリンクのURLをアクセスすると、アカウントが承認されてログインできる。</t>
-    <rPh sb="20" eb="22">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ニュウリョク</t>
+    <rPh sb="44" eb="45">
+      <t>ハラ</t>
     </rPh>
     <rPh sb="46" eb="47">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ショウニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>持続グルコースモニタリング</t>
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="55" eb="59">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>プン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -631,7 +960,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -654,6 +983,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -663,7 +1029,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,6 +1050,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1020,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA721588-41F7-4BCC-B29E-3B0A8847DE00}">
-  <dimension ref="B2:F66"/>
+  <dimension ref="B2:G51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1032,16 +1410,16 @@
     <col min="2" max="2" width="5.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.58203125" customWidth="1"/>
     <col min="4" max="4" width="15.9140625" customWidth="1"/>
-    <col min="5" max="5" width="57.25" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="5" max="6" width="57.25" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="29" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1052,13 +1430,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1066,476 +1447,447 @@
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="2"/>
+      <c r="C7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="2"/>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C8" s="9"/>
       <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="108" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="10"/>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="2"/>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C12" s="9"/>
       <c r="D12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="108" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="9"/>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2"/>
       <c r="C18" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2">
+        <v>49</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="4"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="4"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2"/>
-      <c r="C24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="2"/>
-      <c r="C28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="2"/>
-      <c r="C30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="2"/>
-      <c r="C33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="2"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="2"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="2"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="2"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="2"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="2"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="2"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="2"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="2"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="2"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="2"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="2"/>
-      <c r="C46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="2"/>
-      <c r="C47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="2"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="2"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="3" t="s">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G47" s="6">
         <v>1</v>
       </c>
-      <c r="C61" s="3" t="s">
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G48" s="6">
         <v>2</v>
       </c>
-      <c r="D61" s="3" t="s">
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G49" s="6">
         <v>3</v>
       </c>
-      <c r="E61" s="3" t="s">
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G50" s="6">
         <v>4</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F62" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F63" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F64" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F65" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F66" s="6">
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G51" s="6">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F49" xr:uid="{063BA882-1D22-49FF-B7F8-4A28537B17C9}">
-      <formula1>$F$62:$F$66</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G34" xr:uid="{063BA882-1D22-49FF-B7F8-4A28537B17C9}">
+      <formula1>$G$47:$G$51</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1546,23 +1898,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCFC68C-AE60-4761-9F88-61ECCD6C15B0}">
   <dimension ref="C5:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="5" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/doc/機能一覧.xlsx
+++ b/doc/機能一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sawatch\github\GlucoseDashboard\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\01_勉強\01_Github\glucose-dashboard-doc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27128917-F52F-4062-8FD3-5079E0B8141E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA58DEA2-F74A-4B85-9715-08F3070B2585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1830" windowWidth="23180" windowHeight="19770" xr2:uid="{11A5C2B7-58AE-4B20-ABA9-0D443A0D82AF}"/>
+    <workbookView xWindow="12980" yWindow="1270" windowWidth="23180" windowHeight="19770" xr2:uid="{11A5C2B7-58AE-4B20-ABA9-0D443A0D82AF}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -585,6 +585,32 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>低値、高値、測定不可、などある。
+→課題：平均値や、グラフはどうすべきか？</t>
+    <rPh sb="0" eb="2">
+      <t>テイチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ヘイキンチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1039,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA721588-41F7-4BCC-B29E-3B0A8847DE00}">
-  <dimension ref="B2:F66"/>
+  <dimension ref="B2:F68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1207,67 +1233,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2"/>
-      <c r="C18" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D20" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="2"/>
+      <c r="D21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
+      <c r="D22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="2"/>
@@ -1278,18 +1316,10 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2"/>
-      <c r="C24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="2">
-        <v>3</v>
-      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="2"/>
@@ -1300,10 +1330,18 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="2"/>
@@ -1312,20 +1350,12 @@
       <c r="E27" s="4"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="2"/>
-      <c r="C28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="2">
-        <v>3</v>
-      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="2"/>
@@ -1337,13 +1367,13 @@
     <row r="30" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="2"/>
       <c r="C30" s="4" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F30" s="2">
         <v>3</v>
@@ -1356,27 +1386,27 @@
       <c r="E31" s="4"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="2"/>
+      <c r="C32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="2"/>
-      <c r="C33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="2">
-        <v>3</v>
-      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="2"/>
@@ -1387,10 +1417,18 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="2"/>
+      <c r="C35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="2"/>
@@ -1464,103 +1502,117 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="2"/>
-      <c r="C46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="2">
-        <v>5</v>
-      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="2"/>
-      <c r="C47" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="2">
-        <v>5</v>
-      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="2"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="2"/>
+      <c r="C48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="2"/>
-      <c r="C49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="2"/>
+      <c r="E49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E50" t="s">
+      <c r="B50" s="2"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="2"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="5" t="s">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="3" t="s">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F62" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F63" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F64" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F65" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F66" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F67" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F68" s="6">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F49" xr:uid="{063BA882-1D22-49FF-B7F8-4A28537B17C9}">
-      <formula1>$F$62:$F$66</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F51" xr:uid="{063BA882-1D22-49FF-B7F8-4A28537B17C9}">
+      <formula1>$F$64:$F$68</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/機能一覧.xlsx
+++ b/doc/機能一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\01_勉強\01_Github\glucose-dashboard-doc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA58DEA2-F74A-4B85-9715-08F3070B2585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C245F36E-E742-4B39-995C-3F59BD53CEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12980" yWindow="1270" windowWidth="23180" windowHeight="19770" xr2:uid="{11A5C2B7-58AE-4B20-ABA9-0D443A0D82AF}"/>
+    <workbookView xWindow="18400" yWindow="850" windowWidth="18620" windowHeight="19770" xr2:uid="{11A5C2B7-58AE-4B20-ABA9-0D443A0D82AF}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -376,74 +376,6 @@
   </si>
   <si>
     <t>SMBG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面を表示時に現在の日時を表示する
-・日時を選択できる
-・CGMを入力
-・SMBGを入力
-・薬名を選択、投薬単位を入力（デフォルト２つ、設定されている薬の数だけ表示）</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>クスリ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>トウヤク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>クスリ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -611,6 +543,113 @@
     </rPh>
     <rPh sb="21" eb="24">
       <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CGM設定</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CGMの項目をON/OFFで表示・非表示にする</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面を表示時に現在の日時を表示する
+・日時を選択できる
+・CGMを入力(空白・高値・低値・数字)
+・SMBGを入力(空白・数字)
+・薬名を選択、投薬単位を入力（デフォルト２つ、設定されている薬の数だけ表示）
+CGM/SMBGはどちらか一方を必ず入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>トウヤク</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>イッポウ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1068,7 +1107,7 @@
   <dimension ref="B2:F68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1138,10 +1177,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -1177,7 +1216,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -1190,7 +1229,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -1207,14 +1246,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="108" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:6" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -1224,10 +1263,10 @@
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="F16" s="2">
         <v>5</v>
@@ -1240,7 +1279,7 @@
         <v>31</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2">
         <v>5</v>
@@ -1253,7 +1292,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2">
         <v>5</v>
@@ -1389,13 +1428,13 @@
     <row r="32" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="2"/>
       <c r="C32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="F32" s="2">
         <v>3</v>
@@ -1439,10 +1478,18 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="2"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="2"/>
+      <c r="C37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="2"/>
@@ -1563,7 +1610,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.55000000000000004">
